--- a/outputs-HGR-r202/g__UBA1191.xlsx
+++ b/outputs-HGR-r202/g__UBA1191.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,181 +516,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51918.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2106727631353393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.271921396422542</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07949083238585944</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1024464938310999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.3354685142251594</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.3354685142251594</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900549125</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900549125(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51929.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.2693068082712204</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1114724449790846</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1173960123500979</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1103755145890189</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.3914492198105781</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.3914492198105781</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900549125</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900549125(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58957.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.2869337093203247</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005637697928084618</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00152044974616863</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6745555861990631</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03135255680635889</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6745555861990631</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900545775</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900545775(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66916.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.154533639732415</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03572232090891553</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.003786625780295634</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7794604747549942</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02649693882337973</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7794604747549942</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900545775</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900545775</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT86091.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1030605473331715</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6509245383648035</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.02082814808146064</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.214603731755415</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01058303446514917</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6509245383648035</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900542385</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>s__UBA1191 sp900542385(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
